--- a/encodingTimeLargeSelectivitySmallMem.xlsx
+++ b/encodingTimeLargeSelectivitySmallMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F20CAED-0856-420A-A161-36110D5A43B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676A6DC-C4F3-47B8-9047-4C1E91CBC7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="345" windowWidth="14175" windowHeight="11385" activeTab="3" xr2:uid="{9258951C-391A-4E69-B833-D564BFB2188C}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="14055" windowHeight="15645" xr2:uid="{9258951C-391A-4E69-B833-D564BFB2188C}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>RLE</t>
   </si>
@@ -56,18 +56,6 @@
   <si>
     <t>HYBRID_COLUMNAR</t>
   </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
-  </si>
 </sst>
 </file>
 
@@ -75,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +98,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -163,7 +151,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -242,24 +230,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,24 +317,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,24 +404,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,24 +491,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -586,24 +578,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -672,24 +665,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,24 +758,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1160,7 +1155,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [normal]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1239,24 +1234,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1325,24 +1321,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1411,24 +1408,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1497,24 +1495,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1583,24 +1582,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1669,24 +1669,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1761,24 +1762,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1921,7 +1923,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="671393056"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1930,6 +1932,7 @@
       <c:valAx>
         <c:axId val="671393056"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2156,7 +2159,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2235,24 +2246,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2321,24 +2333,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2407,24 +2420,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2493,24 +2507,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2579,24 +2594,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2665,24 +2681,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2757,24 +2774,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3152,8 +3170,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> [exponential 2]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3231,24 +3254,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3317,24 +3341,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3403,24 +3428,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3489,24 +3515,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3575,24 +3602,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3661,24 +3689,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3753,24 +3782,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6748,8 +6778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1CC36F-DF1F-4993-AA2F-B6D3A3309C22}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,17 +6792,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,7 +6935,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6918,17 +6948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,7 +7091,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,17 +7104,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7216,8 +7246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920EA6EC-2617-4FD0-A65E-8B4254E4A7BD}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,17 +7260,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/encodingTimeLargeSelectivitySmallMem.xlsx
+++ b/encodingTimeLargeSelectivitySmallMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676A6DC-C4F3-47B8-9047-4C1E91CBC7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA301BB-9DE1-42D5-A37A-2E8E442C1DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="14055" windowHeight="15645" xr2:uid="{9258951C-391A-4E69-B833-D564BFB2188C}"/>
+    <workbookView minimized="1" xWindow="480" yWindow="0" windowWidth="14055" windowHeight="15645" xr2:uid="{9258951C-391A-4E69-B833-D564BFB2188C}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -6779,7 +6779,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
